--- a/Code/Results/Cases/Case_1_66/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_66/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2719000402543656</v>
+        <v>0.1424816079850473</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03897553875962956</v>
+        <v>0.01197498982678269</v>
       </c>
       <c r="E2">
-        <v>3.139437966424481</v>
+        <v>0.9637622992196953</v>
       </c>
       <c r="F2">
-        <v>0.5469159389257001</v>
+        <v>0.318272313789997</v>
       </c>
       <c r="G2">
-        <v>0.0007232658523083349</v>
+        <v>0.00234217694929143</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.29503082938001</v>
+        <v>5.46505141147162</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.492593374850287</v>
+        <v>0.9179566526870815</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.236964307370414</v>
+        <v>0.1329196949319993</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03327197188400532</v>
+        <v>0.01043587212457453</v>
       </c>
       <c r="E3">
-        <v>2.659164425882977</v>
+        <v>0.846967803031248</v>
       </c>
       <c r="F3">
-        <v>0.4528722510137229</v>
+        <v>0.3139561509140876</v>
       </c>
       <c r="G3">
-        <v>0.0007318970040937915</v>
+        <v>0.002346686016869877</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.80235139751386</v>
+        <v>4.77459749794798</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.21462115753971</v>
+        <v>0.9186121314335765</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.215830452569989</v>
+        <v>0.1271191138327055</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02990144056722244</v>
+        <v>0.00948962258665631</v>
       </c>
       <c r="E4">
-        <v>2.379181949948105</v>
+        <v>0.7755721030708003</v>
       </c>
       <c r="F4">
-        <v>0.4003125034659618</v>
+        <v>0.3120207158198411</v>
       </c>
       <c r="G4">
-        <v>0.000737201710691896</v>
+        <v>0.002349581902428424</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.32166041417969</v>
+        <v>4.349330696835921</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.062473426415067</v>
+        <v>0.92148148458881</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2072857129643921</v>
+        <v>0.1247731336548412</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02855340972428877</v>
+        <v>0.009103693151232051</v>
       </c>
       <c r="E5">
-        <v>2.268019399270244</v>
+        <v>0.7465529706113472</v>
       </c>
       <c r="F5">
-        <v>0.3799879405703734</v>
+        <v>0.3114081520600536</v>
       </c>
       <c r="G5">
-        <v>0.0007393712472919302</v>
+        <v>0.002350794154623732</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.72795146292677</v>
+        <v>4.175685366025391</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.004372755530909</v>
+        <v>0.9232581234990391</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2058706187726216</v>
+        <v>0.1243846633026209</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02833091969183954</v>
+        <v>0.009039589826421945</v>
       </c>
       <c r="E6">
-        <v>2.249717626033046</v>
+        <v>0.7417387875898527</v>
       </c>
       <c r="F6">
-        <v>0.3766737086357779</v>
+        <v>0.3113169706404477</v>
       </c>
       <c r="G6">
-        <v>0.0007397321368211953</v>
+        <v>0.002350997394377274</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.62987949052331</v>
+        <v>4.146830489529577</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9949411859962538</v>
+        <v>0.9235894381681362</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2157149567953383</v>
+        <v>0.1270874029223847</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02988316613654973</v>
+        <v>0.00948441914231779</v>
       </c>
       <c r="E7">
-        <v>2.377671844296657</v>
+        <v>0.7751804419280575</v>
       </c>
       <c r="F7">
-        <v>0.4000342196046986</v>
+        <v>0.3120117460874638</v>
       </c>
       <c r="G7">
-        <v>0.0007372309303971168</v>
+        <v>0.002349598120892267</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.31361755941055</v>
+        <v>4.34699026974215</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.061674968424143</v>
+        <v>0.9215030028678086</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2597804715733929</v>
+        <v>0.139170078435825</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03697650887750825</v>
+        <v>0.01144454410324158</v>
       </c>
       <c r="E8">
-        <v>2.970189965939866</v>
+        <v>0.9234230072218281</v>
       </c>
       <c r="F8">
-        <v>0.5132747959487602</v>
+        <v>0.3166336020988041</v>
       </c>
       <c r="G8">
-        <v>0.0007262451882723896</v>
+        <v>0.002343705343188862</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.42329282156703</v>
+        <v>5.227249714439523</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.392398567365888</v>
+        <v>0.9176628287809763</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3493893415937066</v>
+        <v>0.1634213682550438</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05240129284971573</v>
+        <v>0.01527983632681185</v>
       </c>
       <c r="E9">
-        <v>4.301435522126354</v>
+        <v>1.216876692427974</v>
       </c>
       <c r="F9">
-        <v>0.7886967200247597</v>
+        <v>0.3315306450376951</v>
       </c>
       <c r="G9">
-        <v>0.0007043504483869301</v>
+        <v>0.002333152887200454</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>23.09053109099321</v>
+        <v>6.94366088030165</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.232474500361093</v>
+        <v>0.9302937363983119</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4184451565553644</v>
+        <v>0.1815783244638851</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.06566516503065145</v>
+        <v>0.01809477232907852</v>
       </c>
       <c r="E10">
-        <v>5.492820196474355</v>
+        <v>1.434541918741076</v>
       </c>
       <c r="F10">
-        <v>1.047841869448391</v>
+        <v>0.3462594489764967</v>
       </c>
       <c r="G10">
-        <v>0.0006872431637738463</v>
+        <v>0.002326001798178814</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>28.69941376843849</v>
+        <v>8.200039958094635</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.055381812780865</v>
+        <v>0.9526842081371001</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4510016044892353</v>
+        <v>0.1899123572507051</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0725362553931177</v>
+        <v>0.01937537405569856</v>
       </c>
       <c r="E11">
-        <v>6.127402505999129</v>
+        <v>1.534108347490417</v>
       </c>
       <c r="F11">
-        <v>1.187302031678698</v>
+        <v>0.3538315292143608</v>
       </c>
       <c r="G11">
-        <v>0.000678918389220862</v>
+        <v>0.002322877079740379</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>31.55213022617471</v>
+        <v>8.770916206805339</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.508564825538201</v>
+        <v>0.9658967734918065</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4635539545756444</v>
+        <v>0.1930789124078132</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.07532348770246244</v>
+        <v>0.01986036899103283</v>
       </c>
       <c r="E12">
-        <v>6.388305837673158</v>
+        <v>1.571898849787345</v>
       </c>
       <c r="F12">
-        <v>1.244563336863095</v>
+        <v>0.3568283848104983</v>
       </c>
       <c r="G12">
-        <v>0.0006756395856854553</v>
+        <v>0.002321712112936933</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>32.69808591086002</v>
+        <v>8.987025331649875</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.696533010716081</v>
+        <v>0.9713502778321299</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4608393156166528</v>
+        <v>0.1923964657375166</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.07471344105909594</v>
+        <v>0.01975591320163517</v>
       </c>
       <c r="E13">
-        <v>6.33102704253119</v>
+        <v>1.563755994130474</v>
       </c>
       <c r="F13">
-        <v>1.232002441309263</v>
+        <v>0.356177133997349</v>
       </c>
       <c r="G13">
-        <v>0.0006763524774312148</v>
+        <v>0.00232196219815888</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>32.44784128367161</v>
+        <v>8.940485021672714</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.655208497252687</v>
+        <v>0.970155505533512</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.45202934940815</v>
+        <v>0.1901726587289261</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.07276131932763974</v>
+        <v>0.01941527340279237</v>
       </c>
       <c r="E14">
-        <v>6.148394484793783</v>
+        <v>1.537215606865459</v>
       </c>
       <c r="F14">
-        <v>1.19191306092317</v>
+        <v>0.3540754637772636</v>
       </c>
       <c r="G14">
-        <v>0.0006786515630965437</v>
+        <v>0.002322780871312196</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>31.64491104070578</v>
+        <v>8.788696871112904</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.52366131502518</v>
+        <v>0.9663363277464327</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4466644550546164</v>
+        <v>0.1888118966450065</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.07159237431815768</v>
+        <v>0.01920663089306629</v>
       </c>
       <c r="E15">
-        <v>6.039509219186584</v>
+        <v>1.520970408563386</v>
       </c>
       <c r="F15">
-        <v>1.167990513863487</v>
+        <v>0.3528051140997377</v>
       </c>
       <c r="G15">
-        <v>0.0006800414030324486</v>
+        <v>0.002323284710058416</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>31.16255646813926</v>
+        <v>8.6957140062608</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.445415740579222</v>
+        <v>0.9640560462531482</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4163449606258496</v>
+        <v>0.1810351671241079</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.06523764543938881</v>
+        <v>0.01801108745956981</v>
       </c>
       <c r="E16">
-        <v>5.453734950423268</v>
+        <v>1.428046730771342</v>
       </c>
       <c r="F16">
-        <v>1.039260692114851</v>
+        <v>0.3457824889157735</v>
       </c>
       <c r="G16">
-        <v>0.0006877727802275194</v>
+        <v>0.002326208574936978</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>28.52066327632036</v>
+        <v>8.162720727974602</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.027718698322246</v>
+        <v>0.9518829162831537</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3980717367210644</v>
+        <v>0.1762833966631803</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06158872166594875</v>
+        <v>0.01727771149791124</v>
       </c>
       <c r="E17">
-        <v>5.122011692023506</v>
+        <v>1.371187169134004</v>
       </c>
       <c r="F17">
-        <v>0.9665630241375993</v>
+        <v>0.3417005391649894</v>
       </c>
       <c r="G17">
-        <v>0.0006923503261294837</v>
+        <v>0.002328035031505262</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>26.98928193589023</v>
+        <v>7.835595490683943</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.794445752797913</v>
+        <v>0.9452009199867177</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3876643275758767</v>
+        <v>0.173557304117935</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0595634460811425</v>
+        <v>0.0168558966666339</v>
       </c>
       <c r="E18">
-        <v>4.939331530676697</v>
+        <v>1.338534258929116</v>
       </c>
       <c r="F18">
-        <v>0.9266713709173757</v>
+        <v>0.3394345255493079</v>
       </c>
       <c r="G18">
-        <v>0.0006949360712409458</v>
+        <v>0.002329097651581692</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>26.13499801366294</v>
+        <v>7.647378222436089</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.667289147356286</v>
+        <v>0.9416416245207984</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3841568388353522</v>
+        <v>0.1726355000227926</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.05888894617570628</v>
+        <v>0.01671307666192234</v>
       </c>
       <c r="E19">
-        <v>4.878717815528375</v>
+        <v>1.327487110481826</v>
       </c>
       <c r="F19">
-        <v>0.9134647714730306</v>
+        <v>0.3386812204071674</v>
       </c>
       <c r="G19">
-        <v>0.0006958045224236882</v>
+        <v>0.002329459517671642</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>25.8498205874883</v>
+        <v>7.583639459917435</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.625329437825997</v>
+        <v>0.9404848372798256</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.400005963561</v>
+        <v>0.1767885066547592</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.06196920039690212</v>
+        <v>0.01735577991538406</v>
       </c>
       <c r="E20">
-        <v>5.156445019653489</v>
+        <v>1.377234612101006</v>
       </c>
       <c r="F20">
-        <v>0.9740953951522613</v>
+        <v>0.3421265725708906</v>
       </c>
       <c r="G20">
-        <v>0.0006918681812576425</v>
+        <v>0.002327839351870309</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>27.14943304144839</v>
+        <v>7.870424926547344</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.818524156366038</v>
+        <v>0.94588272853278</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4546103371049668</v>
+        <v>0.1908255564278534</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.07332893852454703</v>
+        <v>0.01951532555633406</v>
       </c>
       <c r="E21">
-        <v>6.201395717762352</v>
+        <v>1.545008738945683</v>
       </c>
       <c r="F21">
-        <v>1.203552607029849</v>
+        <v>0.3546892284007868</v>
       </c>
       <c r="G21">
-        <v>0.0006779802389055778</v>
+        <v>0.002322539912082193</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>31.87871618705287</v>
+        <v>8.833282399298469</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.561800381002229</v>
+        <v>0.9674457746538394</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4916598215816919</v>
+        <v>0.2000615659746785</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0819047021215269</v>
+        <v>0.02092708333249504</v>
       </c>
       <c r="E22">
-        <v>7.012542702504845</v>
+        <v>1.655169199612573</v>
       </c>
       <c r="F22">
-        <v>1.38085350319362</v>
+        <v>0.3636562700408916</v>
       </c>
       <c r="G22">
-        <v>0.0006681150751494114</v>
+        <v>0.002319182990742245</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>35.37665914535182</v>
+        <v>9.46217477087805</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.148147465140937</v>
+        <v>0.9841696429247406</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4717314244868476</v>
+        <v>0.195126477606081</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.07718684008489873</v>
+        <v>0.0201735502306235</v>
       </c>
       <c r="E23">
-        <v>6.563870313621237</v>
+        <v>1.596325028318375</v>
       </c>
       <c r="F23">
-        <v>1.283016553695219</v>
+        <v>0.3587997883342524</v>
       </c>
       <c r="G23">
-        <v>0.000673478419782994</v>
+        <v>0.00232096494542952</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>33.46042371685985</v>
+        <v>9.126549879839672</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.823357448696015</v>
+        <v>0.9749980540788385</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3991311980064154</v>
+        <v>0.1765601284718485</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.06179696420644376</v>
+        <v>0.01732048577040501</v>
       </c>
       <c r="E24">
-        <v>5.140853162441005</v>
+        <v>1.374500450314628</v>
       </c>
       <c r="F24">
-        <v>0.9706841706813947</v>
+        <v>0.3419337116478971</v>
       </c>
       <c r="G24">
-        <v>0.0006920862989465787</v>
+        <v>0.002327927779420046</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>27.07694879681111</v>
+        <v>7.854679003355102</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.80761697546339</v>
+        <v>0.945573604796607</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3246952238997665</v>
+        <v>0.156801140802969</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0479857763914211</v>
+        <v>0.01424297875612979</v>
       </c>
       <c r="E25">
-        <v>3.914427142460568</v>
+        <v>1.137157290901428</v>
       </c>
       <c r="F25">
-        <v>0.7064534768689441</v>
+        <v>0.3268527275687632</v>
       </c>
       <c r="G25">
-        <v>0.0007103771213958776</v>
+        <v>0.002335901203124214</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>21.19651284282816</v>
+        <v>6.480247635590501</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.97732606466451</v>
+        <v>0.9246342974952881</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_66/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_66/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1424816079850473</v>
+        <v>0.2719000402551472</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01197498982678269</v>
+        <v>0.03897553875967219</v>
       </c>
       <c r="E2">
-        <v>0.9637622992196953</v>
+        <v>3.139437966424396</v>
       </c>
       <c r="F2">
-        <v>0.318272313789997</v>
+        <v>0.5469159389257001</v>
       </c>
       <c r="G2">
-        <v>0.00234217694929143</v>
+        <v>0.0007232658523084266</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>5.46505141147162</v>
+        <v>17.29503082937993</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9179566526870815</v>
+        <v>1.492593374850316</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329196949319993</v>
+        <v>0.2369643073696324</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01043587212457453</v>
+        <v>0.03327197188385611</v>
       </c>
       <c r="E3">
-        <v>0.846967803031248</v>
+        <v>2.659164425882992</v>
       </c>
       <c r="F3">
-        <v>0.3139561509140876</v>
+        <v>0.4528722510137229</v>
       </c>
       <c r="G3">
-        <v>0.002346686016869877</v>
+        <v>0.0007318970040747774</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4.77459749794798</v>
+        <v>14.80235139751386</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9186121314335765</v>
+        <v>1.21462115753971</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1271191138327055</v>
+        <v>0.2158304525708985</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.00948962258665631</v>
+        <v>0.0299014405670448</v>
       </c>
       <c r="E4">
-        <v>0.7755721030708003</v>
+        <v>2.379181949947991</v>
       </c>
       <c r="F4">
-        <v>0.3120207158198411</v>
+        <v>0.4003125034659831</v>
       </c>
       <c r="G4">
-        <v>0.002349581902428424</v>
+        <v>0.0007372017108201771</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>4.349330696835921</v>
+        <v>13.32166041417941</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.92148148458881</v>
+        <v>1.062473426415039</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1247731336548412</v>
+        <v>0.2072857129639658</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.009103693151232051</v>
+        <v>0.0285534097240685</v>
       </c>
       <c r="E5">
-        <v>0.7465529706113472</v>
+        <v>2.268019399270273</v>
       </c>
       <c r="F5">
-        <v>0.3114081520600536</v>
+        <v>0.3799879405703592</v>
       </c>
       <c r="G5">
-        <v>0.002350794154623732</v>
+        <v>0.0007393712473666899</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.175685366025391</v>
+        <v>12.7279514629268</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9232581234990391</v>
+        <v>1.004372755530881</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1243846633026209</v>
+        <v>0.2058706187722521</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009039589826421945</v>
+        <v>0.02833091969185375</v>
       </c>
       <c r="E6">
-        <v>0.7417387875898527</v>
+        <v>2.249717626033075</v>
       </c>
       <c r="F6">
-        <v>0.3113169706404477</v>
+        <v>0.3766737086357779</v>
       </c>
       <c r="G6">
-        <v>0.002350997394377274</v>
+        <v>0.0007397321368034668</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>4.146830489529577</v>
+        <v>12.62987949052339</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.9235894381681362</v>
+        <v>0.9949411859962254</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1270874029223847</v>
+        <v>0.2157149567942014</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00948441914231779</v>
+        <v>0.02988316613657815</v>
       </c>
       <c r="E7">
-        <v>0.7751804419280575</v>
+        <v>2.3776718442966</v>
       </c>
       <c r="F7">
-        <v>0.3120117460874638</v>
+        <v>0.4000342196047129</v>
       </c>
       <c r="G7">
-        <v>0.002349598120892267</v>
+        <v>0.0007372309305072189</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>4.34699026974215</v>
+        <v>13.3136175594104</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9215030028678086</v>
+        <v>1.061674968424143</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.139170078435825</v>
+        <v>0.2597804715737198</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01144454410324158</v>
+        <v>0.03697650887784221</v>
       </c>
       <c r="E8">
-        <v>0.9234230072218281</v>
+        <v>2.970189965939809</v>
       </c>
       <c r="F8">
-        <v>0.3166336020988041</v>
+        <v>0.5132747959487745</v>
       </c>
       <c r="G8">
-        <v>0.002343705343188862</v>
+        <v>0.0007262451882907784</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>5.227249714439523</v>
+        <v>16.42329282156695</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9176628287809763</v>
+        <v>1.392398567365859</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1634213682550438</v>
+        <v>0.349389341593664</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01527983632681185</v>
+        <v>0.05240129284982231</v>
       </c>
       <c r="E9">
-        <v>1.216876692427974</v>
+        <v>4.301435522126354</v>
       </c>
       <c r="F9">
-        <v>0.3315306450376951</v>
+        <v>0.7886967200247454</v>
       </c>
       <c r="G9">
-        <v>0.002333152887200454</v>
+        <v>0.0007043504483872181</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>6.94366088030165</v>
+        <v>23.09053109099318</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9302937363983119</v>
+        <v>2.232474500361093</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1815783244638851</v>
+        <v>0.4184451565550802</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01809477232907852</v>
+        <v>0.06566516503060171</v>
       </c>
       <c r="E10">
-        <v>1.434541918741076</v>
+        <v>5.492820196474298</v>
       </c>
       <c r="F10">
-        <v>0.3462594489764967</v>
+        <v>1.047841869448419</v>
       </c>
       <c r="G10">
-        <v>0.002326001798178814</v>
+        <v>0.0006872431637466781</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>8.200039958094635</v>
+        <v>28.69941376843832</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9526842081371001</v>
+        <v>3.055381812780894</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1899123572507051</v>
+        <v>0.4510016044892495</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01937537405569856</v>
+        <v>0.07253625539311059</v>
       </c>
       <c r="E11">
-        <v>1.534108347490417</v>
+        <v>6.127402505999015</v>
       </c>
       <c r="F11">
-        <v>0.3538315292143608</v>
+        <v>1.187302031678669</v>
       </c>
       <c r="G11">
-        <v>0.002322877079740379</v>
+        <v>0.0006789183891397504</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>8.770916206805339</v>
+        <v>31.55213022617454</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9658967734918065</v>
+        <v>3.50856482553823</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1930789124078132</v>
+        <v>0.4635539545753176</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01986036899103283</v>
+        <v>0.07532348770244823</v>
       </c>
       <c r="E12">
-        <v>1.571898849787345</v>
+        <v>6.38830583767313</v>
       </c>
       <c r="F12">
-        <v>0.3568283848104983</v>
+        <v>1.244563336863095</v>
       </c>
       <c r="G12">
-        <v>0.002321712112936933</v>
+        <v>0.0006756395857124859</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>8.987025331649875</v>
+        <v>32.69808591085996</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9713502778321299</v>
+        <v>3.696533010716053</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1923964657375166</v>
+        <v>0.4608393156172639</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01975591320163517</v>
+        <v>0.07471344105876199</v>
       </c>
       <c r="E13">
-        <v>1.563755994130474</v>
+        <v>6.331027042531161</v>
       </c>
       <c r="F13">
-        <v>0.356177133997349</v>
+        <v>1.232002441309291</v>
       </c>
       <c r="G13">
-        <v>0.00232196219815888</v>
+        <v>0.000676352477403637</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>8.940485021672714</v>
+        <v>32.44784128367161</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.970155505533512</v>
+        <v>3.655208497252687</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1901726587289261</v>
+        <v>0.4520293494092158</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01941527340279237</v>
+        <v>0.07276131932770369</v>
       </c>
       <c r="E14">
-        <v>1.537215606865459</v>
+        <v>6.148394484793812</v>
       </c>
       <c r="F14">
-        <v>0.3540754637772636</v>
+        <v>1.191913060923184</v>
       </c>
       <c r="G14">
-        <v>0.002322780871312196</v>
+        <v>0.0006786515630702466</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>8.788696871112904</v>
+        <v>31.64491104070584</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9663363277464327</v>
+        <v>3.523661315025208</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1888118966450065</v>
+        <v>0.4466644550547727</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01920663089306629</v>
+        <v>0.07159237431810084</v>
       </c>
       <c r="E15">
-        <v>1.520970408563386</v>
+        <v>6.039509219186527</v>
       </c>
       <c r="F15">
-        <v>0.3528051140997377</v>
+        <v>1.167990513863472</v>
       </c>
       <c r="G15">
-        <v>0.002323284710058416</v>
+        <v>0.0006800414030587004</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>8.6957140062608</v>
+        <v>31.16255646813914</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9640560462531482</v>
+        <v>3.445415740579278</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1810351671241079</v>
+        <v>0.4163449606267164</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01801108745956981</v>
+        <v>0.06523764543944566</v>
       </c>
       <c r="E16">
-        <v>1.428046730771342</v>
+        <v>5.453734950423211</v>
       </c>
       <c r="F16">
-        <v>0.3457824889157735</v>
+        <v>1.039260692114851</v>
       </c>
       <c r="G16">
-        <v>0.002326208574936978</v>
+        <v>0.0006877727802274084</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>8.162720727974602</v>
+        <v>28.52066327632031</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9518829162831537</v>
+        <v>3.027718698322246</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1762833966631803</v>
+        <v>0.3980717367214766</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01727771149791124</v>
+        <v>0.06158872166584928</v>
       </c>
       <c r="E17">
-        <v>1.371187169134004</v>
+        <v>5.122011692023676</v>
       </c>
       <c r="F17">
-        <v>0.3417005391649894</v>
+        <v>0.9665630241375851</v>
       </c>
       <c r="G17">
-        <v>0.002328035031505262</v>
+        <v>0.0006923503261320863</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>7.835595490683943</v>
+        <v>26.98928193589052</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9452009199867177</v>
+        <v>2.794445752797969</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.173557304117935</v>
+        <v>0.3876643275757061</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0168558966666339</v>
+        <v>0.05956344608125619</v>
       </c>
       <c r="E18">
-        <v>1.338534258929116</v>
+        <v>4.939331530676782</v>
       </c>
       <c r="F18">
-        <v>0.3394345255493079</v>
+        <v>0.9266713709173615</v>
       </c>
       <c r="G18">
-        <v>0.002329097651581692</v>
+        <v>0.0006949360712413491</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>7.647378222436089</v>
+        <v>26.13499801366311</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9416416245207984</v>
+        <v>2.667289147356342</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1726355000227926</v>
+        <v>0.3841568388360201</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01671307666192234</v>
+        <v>0.05888894617577023</v>
       </c>
       <c r="E19">
-        <v>1.327487110481826</v>
+        <v>4.878717815528404</v>
       </c>
       <c r="F19">
-        <v>0.3386812204071674</v>
+        <v>0.9134647714730306</v>
       </c>
       <c r="G19">
-        <v>0.002329459517671642</v>
+        <v>0.0006958045224254606</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>7.583639459917435</v>
+        <v>25.84982058748858</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9404848372798256</v>
+        <v>2.625329437825997</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1767885066547592</v>
+        <v>0.400005963562009</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01735577991538406</v>
+        <v>0.06196920039701581</v>
       </c>
       <c r="E20">
-        <v>1.377234612101006</v>
+        <v>5.156445019653404</v>
       </c>
       <c r="F20">
-        <v>0.3421265725708906</v>
+        <v>0.9740953951522755</v>
       </c>
       <c r="G20">
-        <v>0.002327839351870309</v>
+        <v>0.0006918681811794097</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>7.870424926547344</v>
+        <v>27.14943304144811</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.94588272853278</v>
+        <v>2.818524156366038</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1908255564278534</v>
+        <v>0.4546103371054073</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01951532555633406</v>
+        <v>0.07332893852450439</v>
       </c>
       <c r="E21">
-        <v>1.545008738945683</v>
+        <v>6.201395717762324</v>
       </c>
       <c r="F21">
-        <v>0.3546892284007868</v>
+        <v>1.203552607029849</v>
       </c>
       <c r="G21">
-        <v>0.002322539912082193</v>
+        <v>0.0006779802389059474</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>8.833282399298469</v>
+        <v>31.8787161870527</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9674457746538394</v>
+        <v>3.561800381002058</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2000615659746785</v>
+        <v>0.4916598215822603</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02092708333249504</v>
+        <v>0.08190470212143452</v>
       </c>
       <c r="E22">
-        <v>1.655169199612573</v>
+        <v>7.012542702505073</v>
       </c>
       <c r="F22">
-        <v>0.3636562700408916</v>
+        <v>1.38085350319362</v>
       </c>
       <c r="G22">
-        <v>0.002319182990742245</v>
+        <v>0.0006681150751247762</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>9.46217477087805</v>
+        <v>35.37665914535245</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.9841696429247406</v>
+        <v>4.148147465140937</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.195126477606081</v>
+        <v>0.4717314244864923</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0201735502306235</v>
+        <v>0.07718684008479926</v>
       </c>
       <c r="E23">
-        <v>1.596325028318375</v>
+        <v>6.563870313621351</v>
       </c>
       <c r="F23">
-        <v>0.3587997883342524</v>
+        <v>1.283016553695219</v>
       </c>
       <c r="G23">
-        <v>0.00232096494542952</v>
+        <v>0.0006734784198111354</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>9.126549879839672</v>
+        <v>33.46042371686025</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9749980540788385</v>
+        <v>3.823357448696072</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1765601284718485</v>
+        <v>0.3991311980055059</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01732048577040501</v>
+        <v>0.06179696420610981</v>
       </c>
       <c r="E24">
-        <v>1.374500450314628</v>
+        <v>5.140853162440891</v>
       </c>
       <c r="F24">
-        <v>0.3419337116478971</v>
+        <v>0.9706841706813663</v>
       </c>
       <c r="G24">
-        <v>0.002327927779420046</v>
+        <v>0.0006920862989203608</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>7.854679003355102</v>
+        <v>27.07694879681088</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.945573604796607</v>
+        <v>2.80761697546339</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.156801140802969</v>
+        <v>0.3246952238995675</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01424297875612979</v>
+        <v>0.04798577639118662</v>
       </c>
       <c r="E25">
-        <v>1.137157290901428</v>
+        <v>3.914427142460653</v>
       </c>
       <c r="F25">
-        <v>0.3268527275687632</v>
+        <v>0.7064534768689441</v>
       </c>
       <c r="G25">
-        <v>0.002335901203124214</v>
+        <v>0.0007103771213709531</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>6.480247635590501</v>
+        <v>21.19651284282827</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9246342974952881</v>
+        <v>1.977326064664425</v>
       </c>
     </row>
   </sheetData>
